--- a/build/Name List Example.xlsx
+++ b/build/Name List Example.xlsx
@@ -16,24 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,32 +358,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection sqref="A1:A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>2341</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2">
+        <v>2342</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3">
+        <v>2343</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4">
+        <v>2344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>2351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>2353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>2357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>2359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>2381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>2383</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>2389</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>2393</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>2395</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>2397</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>2403</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>2405</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>2410</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>2413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>2415</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>2420</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>2421</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>2424</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>2425</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>2426</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>2429</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>2431</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>2433</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>2437</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>2438</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>2440</v>
       </c>
     </row>
   </sheetData>
